--- a/technologie-sieciowe-projekt/kosztorys.xlsx
+++ b/technologie-sieciowe-projekt/kosztorys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Cisco Catalyst WS-C3550-12T Managed Switch 12 Ports</t>
   </si>
@@ -42,7 +42,55 @@
     <t>NETGEAR WNCE2001</t>
   </si>
   <si>
-    <t>Switch</t>
+    <t>Kabel instalacyjny UTP 4x2 kat.6</t>
+  </si>
+  <si>
+    <t>SZAFA 19 PRO-ALFA 4U ACT</t>
+  </si>
+  <si>
+    <t>Gniazdo natynkowe 1xRJ 45 kat.6e kompletne biał</t>
+  </si>
+  <si>
+    <t>Patch panel 24P Intellinet UTP Cat6 1U 520959</t>
+  </si>
+  <si>
+    <t>Cena netto</t>
+  </si>
+  <si>
+    <t>Cena bruttokoszt</t>
+  </si>
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>Światłowód gotowy 50/125 4G SC/SC dł.100m.</t>
+  </si>
+  <si>
+    <t>19in RackMount for Catalyst 3560,2960,ME-3400 Compact Switch</t>
+  </si>
+  <si>
+    <t>RECESSED 1RU RACK MOUNT FOR 3550, 3560, and 3750</t>
+  </si>
+  <si>
+    <t>Patch cord kat.6 UTP, CU, AWG 26/7, szary 0,5m</t>
+  </si>
+  <si>
+    <t>Zestaw montażowy do szafy 19” dla urządzenia U30/U70</t>
+  </si>
+  <si>
+    <t>Cisco 7200 Rackmount Kit and Cable Management Bracket</t>
+  </si>
+  <si>
+    <t>SZAFA 10 DELTA/10 9U/255 RBA-09-AS3-CAX-C1 TRITON</t>
+  </si>
+  <si>
+    <t>SZAFA 19 DELTA/S 15U/600x600mm stojaca TRITON</t>
+  </si>
+  <si>
+    <t>Cisco Catalyst 2960-48TT-L</t>
+  </si>
+  <si>
+    <t>IWP-8P8C50-STP-CAT6-RJ45</t>
   </si>
 </sst>
 </file>
@@ -79,8 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,18 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -406,8 +459,23 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -421,8 +489,24 @@
         <f>B2 * C2</f>
         <v>16000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>352</v>
+      </c>
+      <c r="K2">
+        <v>433</v>
+      </c>
+      <c r="L2">
+        <f>K2*I2</f>
+        <v>9526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -436,8 +520,24 @@
         <f t="shared" ref="D3:D6" si="0">B3 * C3</f>
         <v>4400</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>150</v>
+      </c>
+      <c r="K3">
+        <v>185</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L17" si="1">K3*I3</f>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -451,8 +551,24 @@
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>260</v>
+      </c>
+      <c r="J4">
+        <v>4.5</v>
+      </c>
+      <c r="K4">
+        <v>5.6</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -466,30 +582,232 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>111</v>
+      </c>
+      <c r="K5">
+        <v>137</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
         <v>8</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
       </c>
       <c r="C6">
         <v>4875</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>34125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39000</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>470</v>
+      </c>
+      <c r="K6">
+        <v>577</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>154</v>
+      </c>
+      <c r="K7">
+        <v>187</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8">
         <f>SUM(D2:D6)</f>
-        <v>69725</v>
+        <v>74600</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>103</v>
+      </c>
+      <c r="K8">
+        <v>126</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>370</v>
+      </c>
+      <c r="J9">
+        <v>7.8</v>
+      </c>
+      <c r="K9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>3588.9999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>101</v>
+      </c>
+      <c r="K10">
+        <v>121</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>102</v>
+      </c>
+      <c r="K11">
+        <v>126</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>257</v>
+      </c>
+      <c r="K12">
+        <v>315</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>987</v>
+      </c>
+      <c r="K13">
+        <v>1213</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>SUM(L2:L12)</f>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f>D8 +L18</f>
+        <v>95400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/technologie-sieciowe-projekt/kosztorys.xlsx
+++ b/technologie-sieciowe-projekt/kosztorys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Cisco Catalyst WS-C3550-12T Managed Switch 12 Ports</t>
   </si>
@@ -84,20 +84,35 @@
     <t>SZAFA 10 DELTA/10 9U/255 RBA-09-AS3-CAX-C1 TRITON</t>
   </si>
   <si>
-    <t>SZAFA 19 DELTA/S 15U/600x600mm stojaca TRITON</t>
-  </si>
-  <si>
     <t>Cisco Catalyst 2960-48TT-L</t>
   </si>
   <si>
     <t>IWP-8P8C50-STP-CAT6-RJ45</t>
+  </si>
+  <si>
+    <t>ATEN CL-1000MA KVM Konsola LCD 17 + kl+touchpad</t>
+  </si>
+  <si>
+    <t>SOLAR 110 X5 1*E1220/4G/2*500G/DVR/R134SH/W8F</t>
+  </si>
+  <si>
+    <t>ActiveJet UPS ACP 2000 RACK 19 (SINUSOIDA)+</t>
+  </si>
+  <si>
+    <t>LISTWA-KANAŁ EKD 80X40</t>
+  </si>
+  <si>
+    <t>LISTWA-LE 80 (79,5X20,5MM)</t>
+  </si>
+  <si>
+    <t>SZAFA 19 DELTA/S 18U/600x600mm stojąca TRITON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +120,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,12 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +540,7 @@
         <v>2200</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3 * C3</f>
+        <f t="shared" ref="D3:D7" si="0">B3 * C3</f>
         <v>4400</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -533,7 +556,7 @@
         <v>185</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L17" si="1">K3*I3</f>
+        <f t="shared" ref="L3:L18" si="1">K3*I3</f>
         <v>925</v>
       </c>
     </row>
@@ -601,7 +624,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -631,6 +654,19 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5453</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>21812</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
@@ -650,8 +686,8 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8">
-        <f>SUM(D2:D6)</f>
-        <v>74600</v>
+        <f>SUM(D2:D7)</f>
+        <v>96412</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
@@ -744,25 +780,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>987</v>
+        <v>1035</v>
       </c>
       <c r="K13">
-        <v>1213</v>
+        <v>1273</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1213</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <v>100</v>
@@ -776,33 +812,81 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2319</v>
+      </c>
+      <c r="K15">
+        <v>2852</v>
+      </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1416</v>
+      </c>
+      <c r="K16">
+        <v>1742</v>
+      </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>26</v>
+      </c>
       <c r="L18">
-        <f>SUM(L2:L12)</f>
-        <v>20800</v>
+        <f t="shared" si="1"/>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19">
-        <f>D8 +L18</f>
-        <v>95400</v>
+        <f>D8 +L24</f>
+        <v>124319</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f>SUM(L2:L18)</f>
+        <v>27907</v>
       </c>
     </row>
   </sheetData>

--- a/technologie-sieciowe-projekt/kosztorys.xlsx
+++ b/technologie-sieciowe-projekt/kosztorys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Cisco Catalyst WS-C3550-12T Managed Switch 12 Ports</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Koszt</t>
   </si>
   <si>
-    <t>Cisco Router 7200 VXR 7204VXR</t>
-  </si>
-  <si>
     <t>Netsaq U70</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Zestaw montażowy do szafy 19” dla urządzenia U30/U70</t>
   </si>
   <si>
-    <t>Cisco 7200 Rackmount Kit and Cable Management Bracket</t>
-  </si>
-  <si>
     <t>SZAFA 10 DELTA/10 9U/255 RBA-09-AS3-CAX-C1 TRITON</t>
   </si>
   <si>
@@ -106,13 +100,28 @@
   </si>
   <si>
     <t>SZAFA 19 DELTA/S 18U/600x600mm stojąca TRITON</t>
+  </si>
+  <si>
+    <t>Moduł Multi Mode VDSL2/ADSL/2/2+ EHWIC Annex A</t>
+  </si>
+  <si>
+    <t>Cisco HWIC-CABLE-E/J-2=</t>
+  </si>
+  <si>
+    <t>CISCO1921-ADSL2/K9</t>
+  </si>
+  <si>
+    <t>Molex Premise Networks : 19"</t>
+  </si>
+  <si>
+    <t>Patch cord światłowodowy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +136,33 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,18 +182,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
@@ -513,7 +560,7 @@
         <v>16000</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>22</v>
@@ -530,21 +577,21 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">B3 * C3</f>
-        <v>4400</v>
+        <f t="shared" ref="D3:D9" si="0">B3 * C3</f>
+        <v>6400</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -556,13 +603,13 @@
         <v>185</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L18" si="1">K3*I3</f>
+        <f t="shared" ref="L3:L20" si="1">K3*I3</f>
         <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -575,7 +622,7 @@
         <v>14000</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>260</v>
@@ -593,7 +640,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -606,7 +653,7 @@
         <v>1200</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>14</v>
@@ -624,7 +671,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -637,10 +684,10 @@
         <v>39000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>470</v>
@@ -650,12 +697,12 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>577</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -668,7 +715,7 @@
         <v>21812</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>8</v>
@@ -685,12 +732,21 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2347</v>
+      </c>
       <c r="D8">
-        <f>SUM(D2:D7)</f>
-        <v>96412</v>
+        <f t="shared" si="0"/>
+        <v>2347</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -707,8 +763,21 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1347</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1347</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>370</v>
@@ -726,7 +795,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -742,27 +811,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>102</v>
-      </c>
-      <c r="K11">
-        <v>126</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>SUM(D2:D9)</f>
+        <v>102106</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -780,7 +839,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -798,7 +857,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14">
         <v>100</v>
@@ -813,7 +872,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -831,7 +890,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -849,7 +908,7 @@
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17">
         <v>30</v>
@@ -864,7 +923,7 @@
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="H18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -879,19 +938,50 @@
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19">
-        <f>D8 +L24</f>
-        <v>124319</v>
+        <f>D12 +L24</f>
+        <v>132552</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>390</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>70</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="L24">
-        <f>SUM(L2:L18)</f>
-        <v>27907</v>
+        <f>SUM(L2:L20)</f>
+        <v>30446</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H19" r:id="rId1" display="http://www.veracomp.pl/main.php?pg=17&amp;prod_acro=MOLEX"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
